--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +528,1115 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.04277059088176</v>
+        <v>1.174594333333333</v>
       </c>
       <c r="H2">
-        <v>1.04277059088176</v>
+        <v>3.523783</v>
       </c>
       <c r="I2">
-        <v>0.1013964295725235</v>
+        <v>0.1071304476519552</v>
       </c>
       <c r="J2">
-        <v>0.1013964295725235</v>
+        <v>0.1071304476519551</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.30546451893599</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N2">
-        <v>4.30546451893599</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.002735469863414935</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.002735469863414935</v>
       </c>
       <c r="Q2">
-        <v>4.489611780431335</v>
+        <v>0.02171276778311112</v>
       </c>
       <c r="R2">
-        <v>4.489611780431335</v>
+        <v>0.195414910048</v>
       </c>
       <c r="S2">
-        <v>0.1013964295725235</v>
+        <v>0.0002930521110060747</v>
       </c>
       <c r="T2">
-        <v>0.1013964295725235</v>
+        <v>0.0002930521110060746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.03919240383451</v>
+        <v>1.174594333333333</v>
       </c>
       <c r="H3">
-        <v>2.03919240383451</v>
+        <v>3.523783</v>
       </c>
       <c r="I3">
-        <v>0.1982860187736884</v>
+        <v>0.1071304476519552</v>
       </c>
       <c r="J3">
-        <v>0.1982860187736884</v>
+        <v>0.1071304476519551</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>4.30546451893599</v>
+        <v>0.008616666666666667</v>
       </c>
       <c r="N3">
-        <v>4.30546451893599</v>
+        <v>0.02585</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.001275099105043207</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.001275099105043207</v>
       </c>
       <c r="Q3">
-        <v>8.779670541993275</v>
+        <v>0.01012108783888889</v>
       </c>
       <c r="R3">
-        <v>8.779670541993275</v>
+        <v>0.09108979055000001</v>
       </c>
       <c r="S3">
-        <v>0.1982860187736884</v>
+        <v>0.0001366019379238861</v>
       </c>
       <c r="T3">
-        <v>0.1982860187736884</v>
+        <v>0.0001366019379238861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.247354059658732</v>
+        <v>1.174594333333333</v>
       </c>
       <c r="H4">
-        <v>0.247354059658732</v>
+        <v>3.523783</v>
       </c>
       <c r="I4">
-        <v>0.02405209612639365</v>
+        <v>0.1071304476519552</v>
       </c>
       <c r="J4">
-        <v>0.02405209612639365</v>
+        <v>0.1071304476519551</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.30546451893599</v>
+        <v>6.730542666666667</v>
       </c>
       <c r="N4">
-        <v>4.30546451893599</v>
+        <v>20.191628</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9959894310315418</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9959894310315418</v>
       </c>
       <c r="Q4">
-        <v>1.064974127475447</v>
+        <v>7.90565727652489</v>
       </c>
       <c r="R4">
-        <v>1.064974127475447</v>
+        <v>71.150915488724</v>
       </c>
       <c r="S4">
-        <v>0.02405209612639365</v>
+        <v>0.1067007936030252</v>
       </c>
       <c r="T4">
-        <v>0.02405209612639365</v>
+        <v>0.1067007936030252</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.165549333333333</v>
+      </c>
+      <c r="H5">
+        <v>6.496648</v>
+      </c>
+      <c r="I5">
+        <v>0.1975118242176602</v>
+      </c>
+      <c r="J5">
+        <v>0.1975118242176602</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.01848533333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.05545600000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="P5">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="Q5">
+        <v>0.04003090127644445</v>
+      </c>
+      <c r="R5">
+        <v>0.360278111488</v>
+      </c>
+      <c r="S5">
+        <v>0.0005402876428155176</v>
+      </c>
+      <c r="T5">
+        <v>0.0005402876428155176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.165549333333333</v>
+      </c>
+      <c r="H6">
+        <v>6.496648</v>
+      </c>
+      <c r="I6">
+        <v>0.1975118242176602</v>
+      </c>
+      <c r="J6">
+        <v>0.1975118242176602</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.02585</v>
+      </c>
+      <c r="O6">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="P6">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="Q6">
+        <v>0.01865981675555555</v>
+      </c>
+      <c r="R6">
+        <v>0.1679383508</v>
+      </c>
+      <c r="S6">
+        <v>0.0002518471502953896</v>
+      </c>
+      <c r="T6">
+        <v>0.0002518471502953897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.165549333333333</v>
+      </c>
+      <c r="H7">
+        <v>6.496648</v>
+      </c>
+      <c r="I7">
+        <v>0.1975118242176602</v>
+      </c>
+      <c r="J7">
+        <v>0.1975118242176602</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="N7">
+        <v>20.191628</v>
+      </c>
+      <c r="O7">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="P7">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="Q7">
+        <v>14.57532218477156</v>
+      </c>
+      <c r="R7">
+        <v>131.177899662944</v>
+      </c>
+      <c r="S7">
+        <v>0.1967196894245493</v>
+      </c>
+      <c r="T7">
+        <v>0.1967196894245493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.094374</v>
+      </c>
+      <c r="H8">
+        <v>0.283122</v>
+      </c>
+      <c r="I8">
+        <v>0.008607506932213717</v>
+      </c>
+      <c r="J8">
+        <v>0.008607506932213717</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.01848533333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.05545600000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="P8">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="Q8">
+        <v>0.001744534848</v>
+      </c>
+      <c r="R8">
+        <v>0.015700813632</v>
+      </c>
+      <c r="S8">
+        <v>2.354557581220577E-05</v>
+      </c>
+      <c r="T8">
+        <v>2.354557581220577E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.094374</v>
+      </c>
+      <c r="H9">
+        <v>0.283122</v>
+      </c>
+      <c r="I9">
+        <v>0.008607506932213717</v>
+      </c>
+      <c r="J9">
+        <v>0.008607506932213717</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.02585</v>
+      </c>
+      <c r="O9">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="P9">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="Q9">
+        <v>0.0008131893</v>
+      </c>
+      <c r="R9">
+        <v>0.0073187037</v>
+      </c>
+      <c r="S9">
+        <v>1.097542438591891E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.097542438591891E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.094374</v>
+      </c>
+      <c r="H10">
+        <v>0.283122</v>
+      </c>
+      <c r="I10">
+        <v>0.008607506932213717</v>
+      </c>
+      <c r="J10">
+        <v>0.008607506932213717</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="N10">
+        <v>20.191628</v>
+      </c>
+      <c r="O10">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="P10">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="Q10">
+        <v>0.6351882336240001</v>
+      </c>
+      <c r="R10">
+        <v>5.716694102616001</v>
+      </c>
+      <c r="S10">
+        <v>0.008572985932015591</v>
+      </c>
+      <c r="T10">
+        <v>0.008572985932015591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2991183333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.897355</v>
+      </c>
+      <c r="I11">
+        <v>0.02728148777967321</v>
+      </c>
+      <c r="J11">
+        <v>0.02728148777967321</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.01848533333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.05545600000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="P11">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="Q11">
+        <v>0.005529302097777779</v>
+      </c>
+      <c r="R11">
+        <v>0.04976371888000001</v>
+      </c>
+      <c r="S11">
+        <v>7.462768765041892E-05</v>
+      </c>
+      <c r="T11">
+        <v>7.462768765041892E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2991183333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.897355</v>
+      </c>
+      <c r="I12">
+        <v>0.02728148777967321</v>
+      </c>
+      <c r="J12">
+        <v>0.02728148777967321</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.02585</v>
+      </c>
+      <c r="O12">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="P12">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="Q12">
+        <v>0.002577402972222222</v>
+      </c>
+      <c r="R12">
+        <v>0.02319662675</v>
+      </c>
+      <c r="S12">
+        <v>3.478660065210849E-05</v>
+      </c>
+      <c r="T12">
+        <v>3.47866006521085E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2991183333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.897355</v>
+      </c>
+      <c r="I13">
+        <v>0.02728148777967321</v>
+      </c>
+      <c r="J13">
+        <v>0.02728148777967321</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="N13">
+        <v>20.191628</v>
+      </c>
+      <c r="O13">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="P13">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="Q13">
+        <v>2.013228704882222</v>
+      </c>
+      <c r="R13">
+        <v>18.11905834394</v>
+      </c>
+      <c r="S13">
+        <v>0.02717207349137069</v>
+      </c>
+      <c r="T13">
+        <v>0.02717207349137069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.122905</v>
+      </c>
+      <c r="H14">
+        <v>0.368715</v>
+      </c>
+      <c r="I14">
+        <v>0.01120971495860859</v>
+      </c>
+      <c r="J14">
+        <v>0.01120971495860859</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.01848533333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.05545600000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="P14">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="Q14">
+        <v>0.002271939893333334</v>
+      </c>
+      <c r="R14">
+        <v>0.02044745904</v>
+      </c>
+      <c r="S14">
+        <v>3.066383744674539E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.066383744674539E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.122905</v>
+      </c>
+      <c r="H15">
+        <v>0.368715</v>
+      </c>
+      <c r="I15">
+        <v>0.01120971495860859</v>
+      </c>
+      <c r="J15">
+        <v>0.01120971495860859</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.02585</v>
+      </c>
+      <c r="O15">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="P15">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="Q15">
+        <v>0.001059031416666667</v>
+      </c>
+      <c r="R15">
+        <v>0.009531282750000002</v>
+      </c>
+      <c r="S15">
+        <v>1.429349751151126E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.429349751151126E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>6.95477870006102</v>
-      </c>
-      <c r="H5">
-        <v>6.95477870006102</v>
-      </c>
-      <c r="I5">
-        <v>0.6762654555273945</v>
-      </c>
-      <c r="J5">
-        <v>0.6762654555273945</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>4.30546451893599</v>
-      </c>
-      <c r="N5">
-        <v>4.30546451893599</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>29.94355293016449</v>
-      </c>
-      <c r="R5">
-        <v>29.94355293016449</v>
-      </c>
-      <c r="S5">
-        <v>0.6762654555273945</v>
-      </c>
-      <c r="T5">
-        <v>0.6762654555273945</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.122905</v>
+      </c>
+      <c r="H16">
+        <v>0.368715</v>
+      </c>
+      <c r="I16">
+        <v>0.01120971495860859</v>
+      </c>
+      <c r="J16">
+        <v>0.01120971495860859</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="N16">
+        <v>20.191628</v>
+      </c>
+      <c r="O16">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="P16">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="Q16">
+        <v>0.8272173464466668</v>
+      </c>
+      <c r="R16">
+        <v>7.444956118020001</v>
+      </c>
+      <c r="S16">
+        <v>0.01116475762365033</v>
+      </c>
+      <c r="T16">
+        <v>0.01116475762365033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.107609333333333</v>
+      </c>
+      <c r="H17">
+        <v>21.322828</v>
+      </c>
+      <c r="I17">
+        <v>0.6482590184598892</v>
+      </c>
+      <c r="J17">
+        <v>0.6482590184598892</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.01848533333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.05545600000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="P17">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="Q17">
+        <v>0.1313865277297778</v>
+      </c>
+      <c r="R17">
+        <v>1.182478749568</v>
+      </c>
+      <c r="S17">
+        <v>0.001773293008683973</v>
+      </c>
+      <c r="T17">
+        <v>0.001773293008683973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.107609333333333</v>
+      </c>
+      <c r="H18">
+        <v>21.322828</v>
+      </c>
+      <c r="I18">
+        <v>0.6482590184598892</v>
+      </c>
+      <c r="J18">
+        <v>0.6482590184598892</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.02585</v>
+      </c>
+      <c r="O18">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="P18">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="Q18">
+        <v>0.06124390042222222</v>
+      </c>
+      <c r="R18">
+        <v>0.5511951038</v>
+      </c>
+      <c r="S18">
+        <v>0.0008265944942743923</v>
+      </c>
+      <c r="T18">
+        <v>0.0008265944942743924</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.107609333333333</v>
+      </c>
+      <c r="H19">
+        <v>21.322828</v>
+      </c>
+      <c r="I19">
+        <v>0.6482590184598892</v>
+      </c>
+      <c r="J19">
+        <v>0.6482590184598892</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="N19">
+        <v>20.191628</v>
+      </c>
+      <c r="O19">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="P19">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="Q19">
+        <v>47.83806787599823</v>
+      </c>
+      <c r="R19">
+        <v>430.5426108839841</v>
+      </c>
+      <c r="S19">
+        <v>0.6456591309569308</v>
+      </c>
+      <c r="T19">
+        <v>0.6456591309569308</v>
       </c>
     </row>
   </sheetData>
